--- a/DM_air_matrix.xlsx
+++ b/DM_air_matrix.xlsx
@@ -711,28 +711,28 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>2010024</v>
+        <v>129600</v>
       </c>
       <c r="I7" t="n">
-        <v>2092165</v>
+        <v>103680</v>
       </c>
       <c r="J7" t="n">
-        <v>2447823</v>
+        <v>120960</v>
       </c>
       <c r="K7" t="n">
-        <v>2885823</v>
+        <v>112320</v>
       </c>
       <c r="L7" t="n">
-        <v>2606966</v>
+        <v>120960</v>
       </c>
       <c r="M7" t="n">
-        <v>2126285</v>
+        <v>146880</v>
       </c>
       <c r="N7" t="n">
-        <v>2009794</v>
+        <v>43200</v>
       </c>
       <c r="O7" t="n">
-        <v>1955324</v>
+        <v>233280</v>
       </c>
     </row>
     <row r="8">
@@ -761,7 +761,7 @@
         <v>37.90629959</v>
       </c>
       <c r="G8" t="n">
-        <v>2008304</v>
+        <v>129600</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -770,37 +770,37 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>409069</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>466360</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>378316</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>615015</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2270</t>
+          <t>0</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>134262</t>
+          <t>60480</t>
         </is>
       </c>
     </row>
@@ -830,11 +830,11 @@
         <v>104.3889999</v>
       </c>
       <c r="G9" t="n">
-        <v>2093008</v>
+        <v>103680</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>409382</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>162563</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>316535</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>200364</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>185441</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>409269</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>409454</t>
+          <t>17280</t>
         </is>
       </c>
     </row>
@@ -899,16 +899,16 @@
         <v>49.27870178</v>
       </c>
       <c r="G10" t="n">
-        <v>2448118</v>
+        <v>120960</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>466575</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>162551</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -918,27 +918,27 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>430908</t>
+          <t>8640</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>169159</t>
+          <t>8640</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>588651</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>466613</t>
+          <t>8640</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>163661</t>
+          <t>25920</t>
         </is>
       </c>
     </row>
@@ -968,21 +968,21 @@
         <v>30.26250076</v>
       </c>
       <c r="G11" t="n">
-        <v>2885747</v>
+        <v>112320</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>378744</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>316338</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>430656</t>
+          <t>8640</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>443117</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>528125</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>378521</t>
+          <t>8640</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>410246</t>
+          <t>25920</t>
         </is>
       </c>
     </row>
@@ -1037,26 +1037,26 @@
         <v>82.65070342999999</v>
       </c>
       <c r="G12" t="n">
-        <v>2607537</v>
+        <v>120960</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>615305</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>200465</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>169347</t>
+          <t>8640</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>442908</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1066,17 +1066,17 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>340185</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>615292</t>
+          <t>8640</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>224035</t>
+          <t>34560</t>
         </is>
       </c>
     </row>
@@ -1106,31 +1106,31 @@
         <v>37.4146</v>
       </c>
       <c r="G13" t="n">
-        <v>2127588</v>
+        <v>146880</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>185387</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>588595</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>528500</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>340356</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2695</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>479404</t>
+          <t>60480</t>
         </is>
       </c>
     </row>
@@ -1175,25 +1175,29 @@
         <v>37.26150131</v>
       </c>
       <c r="G14" t="n">
-        <v>2008304</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3012</v>
+        <v>51840</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>409069</v>
+        <v>17280</v>
       </c>
       <c r="J14" t="n">
-        <v>466360</v>
+        <v>8640</v>
       </c>
       <c r="K14" t="n">
-        <v>378316</v>
+        <v>8640</v>
       </c>
       <c r="L14" t="n">
-        <v>615015</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2270</v>
+        <v>8640</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>:</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1201,7 +1205,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>134262</v>
+        <v>8640</v>
       </c>
     </row>
     <row r="15">
@@ -1230,41 +1234,41 @@
         <v>132.147995</v>
       </c>
       <c r="G15" t="n">
-        <v>1955598</v>
+        <v>224640</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>134355</t>
+          <t>60480</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>409286</t>
+          <t>17280</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>163942</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>410340</t>
+          <t>25920</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>223940</t>
+          <t>34560</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>479343</t>
+          <t>60480</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>134392</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
